--- a/failed_imports_20250310_142926.xlsx
+++ b/failed_imports_20250310_142926.xlsx
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,7 +1268,7 @@
       <c r="A11">
         <v>643</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
@@ -1285,7 +1285,7 @@
       <c r="A12">
         <v>759</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12" t="s">
@@ -1302,7 +1302,7 @@
       <c r="A13">
         <v>764</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C13" t="s">
@@ -1319,7 +1319,7 @@
       <c r="A14">
         <v>796</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
@@ -1336,7 +1336,7 @@
       <c r="A15">
         <v>883</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="s">
@@ -1353,7 +1353,7 @@
       <c r="A16">
         <v>886</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="s">
@@ -1370,7 +1370,7 @@
       <c r="A17">
         <v>887</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="s">
@@ -1387,7 +1387,7 @@
       <c r="A18">
         <v>964</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C18" t="s">
@@ -1404,7 +1404,7 @@
       <c r="A19">
         <v>1033</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C19" t="s">
@@ -1421,7 +1421,7 @@
       <c r="A20">
         <v>1042</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C20" t="s">
@@ -1472,7 +1472,7 @@
       <c r="A23">
         <v>1151</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C23" t="s">
@@ -1489,7 +1489,7 @@
       <c r="A24">
         <v>1320</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C24" t="s">
@@ -1506,7 +1506,7 @@
       <c r="A25">
         <v>1321</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C25" t="s">
@@ -1574,7 +1574,7 @@
       <c r="A29">
         <v>2285</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C29" t="s">
@@ -1591,7 +1591,7 @@
       <c r="A30">
         <v>2286</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C30" t="s">
@@ -1948,7 +1948,7 @@
       <c r="A51">
         <v>2378</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C51" t="s">
@@ -1965,7 +1965,7 @@
       <c r="A52">
         <v>2379</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C52" t="s">
@@ -1982,7 +1982,7 @@
       <c r="A53">
         <v>2380</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C53" t="s">
@@ -1999,7 +1999,7 @@
       <c r="A54">
         <v>2381</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C54" t="s">
@@ -2016,7 +2016,7 @@
       <c r="A55">
         <v>2382</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C55" t="s">
@@ -2033,7 +2033,7 @@
       <c r="A56">
         <v>2383</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C56" t="s">
@@ -2101,7 +2101,7 @@
       <c r="A60">
         <v>2387</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C60" t="s">
@@ -2118,7 +2118,7 @@
       <c r="A61">
         <v>2388</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C61" t="s">
@@ -2135,7 +2135,7 @@
       <c r="A62">
         <v>2440</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C62" t="s">
@@ -2152,7 +2152,7 @@
       <c r="A63">
         <v>2460</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C63" t="s">
@@ -2169,7 +2169,7 @@
       <c r="A64">
         <v>2462</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C64" t="s">
@@ -2203,7 +2203,7 @@
       <c r="A66">
         <v>2467</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C66" t="s">
@@ -2220,7 +2220,7 @@
       <c r="A67">
         <v>2534</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C67" t="s">
@@ -2237,7 +2237,7 @@
       <c r="A68">
         <v>2537</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C68" t="s">
@@ -2254,7 +2254,7 @@
       <c r="A69">
         <v>2542</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C69" t="s">
@@ -2271,7 +2271,7 @@
       <c r="A70">
         <v>2543</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C70" t="s">
@@ -2288,7 +2288,7 @@
       <c r="A71">
         <v>2544</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C71" t="s">
@@ -2305,7 +2305,7 @@
       <c r="A72">
         <v>2545</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C72" t="s">
@@ -2322,7 +2322,7 @@
       <c r="A73">
         <v>2546</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C73" t="s">
@@ -2339,7 +2339,7 @@
       <c r="A74">
         <v>2547</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C74" t="s">
@@ -2356,7 +2356,7 @@
       <c r="A75">
         <v>2548</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C75" t="s">
@@ -2390,7 +2390,7 @@
       <c r="A77">
         <v>2623</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C77" t="s">
@@ -2407,7 +2407,7 @@
       <c r="A78">
         <v>2626</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C78" t="s">
@@ -2424,7 +2424,7 @@
       <c r="A79">
         <v>2635</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C79" t="s">
@@ -2441,7 +2441,7 @@
       <c r="A80">
         <v>2637</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C80" t="s">
@@ -2509,7 +2509,7 @@
       <c r="A84">
         <v>2682</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C84" t="s">
@@ -2526,7 +2526,7 @@
       <c r="A85">
         <v>2769</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C85" t="s">
@@ -2543,7 +2543,7 @@
       <c r="A86">
         <v>2972</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C86" t="s">
@@ -2560,7 +2560,7 @@
       <c r="A87">
         <v>2981</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C87" t="s">
@@ -2577,7 +2577,7 @@
       <c r="A88">
         <v>3062</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C88" t="s">
